--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_09422F71672841EC54E2A17A244887A8868EB770" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD818ABE-A1CF-45E1-9F7C-DCB4EDBBADE3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\dist-heat\BFoHPbF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9204FEF-96D0-4241-8F22-DC9761DAF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="765" windowWidth="21600" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35865" yWindow="600" windowWidth="20460" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2829,7 +2834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2917,8 +2922,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2931,3120 +2936,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>electricity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$2:$AE$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2.0511895560849369E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.97183420560613E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8911626314274327E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8174508669830397E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7732076517361758E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6828756042059206E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5969511615408492E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5185536576344117E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4359762038366837E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1036144515288749</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1105235129943257</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1175411011123919</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1247206455520445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13202174223606919</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13952805295868539</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1460659786325039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15275924438427799</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1594391541135437</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16626352917530629</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.17319618406318019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.17232626558709721</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.17162578197452311</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.17075679447652711</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.16984535359197539</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.16897568299221</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1663461267987297</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1639421910621266</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16134282401970371</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1587584657225557</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15620152176952939</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>coal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$3:$AE$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.21753933229576991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20947251053708249</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2017307925674624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19485884660942729</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1868176419181567</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17420336191050481</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16088882453339751</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1474363464164076</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13451609776299431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1215640995170275</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1142142786158829</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1066999371784353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.9436113357178224E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1589312800592904E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3709962694604678E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.0091869144127872E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.6462214314518731E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.2913477843228422E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.9202642665465691E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.5444871290983253E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.2200871104752441E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.8951531586911493E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5793975323945998E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.248514257387521E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.9439055638970747E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.6594597361079237E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3891883543948129E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.128237365063539E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.854817732878512E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.5988830824543579E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>natural gas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$4:$AE$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.43975616461321942</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43018614757654772</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42172160464139608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41249836464363338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40445324236212249</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40184057462036132</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39907122136438372</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39722990186150681</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39451249191406002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.39186416789675982</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.38948842142828471</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38781955538169782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3858737074619667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.38425327706196011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.38271813361753382</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.37923033460090239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.37543434452307939</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37164089940847111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36783202423215722</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36388313058995742</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36370813746571901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.36340782522179882</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.36305064201496462</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.36318651033873539</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.36272817249675332</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36302905704727018</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.36273010182155779</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.3625613925087785</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.36284798665814622</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.36277877183812052</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>biomass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$5:$AE$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.29084967053780919</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29920456655473737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30621203536944008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31298615292466958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31941595950066642</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32146119727436101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32423990469020753</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32610699071422478</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.32824963146528541</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.33020335453745048</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32765821671836393</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32432893445506727</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.32069587868169469</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.31700056238089191</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.31281858617892688</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.30752184041066288</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.30223255628230911</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29685675612914231</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.29141045399545618</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.28597866211772521</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2857501761837502</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.28538926934962677</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.28530405963298311</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.28491269434893562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.28480325866302281</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28561185269609662</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.28660525964204431</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28766389854571361</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.2883696428970503</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28924287298382367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>petroleum diesel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$6:$AE$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>3.1342936992351959E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1418433275570951E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.142394110742712E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1482127152439032E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1581079701692702E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.799354691389053E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4328093996879931E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0544472473782691E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6725527554973248E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.281300202611549E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.20850278430427E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.133633707695598E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.060508457542904E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.8535924528713233E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0940465396616363E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.7246315513485918E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.3519971482311703E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.9886440514615846E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.609727852192702E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.2291733701084944E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.97762501284592E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.7249516788076957E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.4807948904778206E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.2193054686401662E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.9815326742556742E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8023295515719966E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6387755356876986E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.4755283272248248E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.3018893184578319E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1408384594903399E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>heat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$7:$AE$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>crude oil</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$8:$AE$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>heavy or residual fuel oil</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$9:$AE$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LPG propane or butane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$10:$AE$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BFoHPbF!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>hydrogen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>BFoHPbF!$B$1:$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BFoHPbF!$B$11:$AE$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6725632388231083E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5502443799722911E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3496751957734079E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1636489264320292E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9940924493771908E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6030542400100162E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2274134795451857E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.8668570371686941E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5281513067614746E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.21312180105875E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.8365345660454319E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4759643347583666E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.1161068454152935E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.7681622079422006E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1042679785680455</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1090369246458353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1139006401883321</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1186137336611016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.123350993677838</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1280722975347876</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.13261603654525231</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.13719178839463569</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.14167398294794409</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.14617383807500489</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15064716412449261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-84A1-47B4-A3FC-3F0FACC1D811}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1273761288"/>
-        <c:axId val="1273767432"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1273761288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1273767432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1273767432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1273761288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF145BE-8456-0CB9-84A0-29B621190521}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6340,17 +3231,17 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6358,33 +3249,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -6403,9 +3294,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -6509,7 +3400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -6613,7 +3504,7 @@
         <v>84.922659508405076</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -6717,7 +3608,7 @@
         <v>3.0064656954823401</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -6821,7 +3712,7 @@
         <v>68.611350057821241</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -6925,7 +3816,7 @@
         <v>12.68126377395277</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -7029,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -7133,7 +4024,7 @@
         <v>37.052588985634017</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -7237,7 +4128,7 @@
         <v>16.006718534681251</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -7341,7 +4232,7 @@
         <v>4.2684582759150009</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -7445,7 +4336,7 @@
         <v>8.5369165518300019</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7549,7 +4440,7 @@
         <v>37.615830404089706</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -7653,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7757,7 +4648,7 @@
         <v>35.735038883885217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -7861,7 +4752,7 @@
         <v>2.1519867298176938</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -7965,7 +4856,7 @@
         <v>0.60972957344834666</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -8069,7 +4960,7 @@
         <v>1.2194591468966931</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -8173,7 +5064,7 @@
         <v>95.609702328925096</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -8277,7 +5168,7 @@
         <v>4.0923465806674058</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -8381,7 +5272,7 @@
         <v>86.054812868366852</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -8485,7 +5376,7 @@
         <v>47.562149044292468</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -8589,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -8693,7 +5584,7 @@
         <v>47.562149044292468</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -8797,7 +5688,7 @@
         <v>66.450742710422901</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -8901,7 +5792,7 @@
         <v>9.64895056690467</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -9014,13 +5905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -9115,7 +6006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -9210,7 +6101,7 @@
         <v>0.15620152176952939</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -9305,7 +6196,7 @@
         <v>3.5988830824543579E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -9325,82 +6216,82 @@
         <v>0.40445324236212249</v>
       </c>
       <c r="G4">
-        <v>0.40184057462036132</v>
+        <v>0.40951313785918442</v>
       </c>
       <c r="H4">
-        <v>0.39907122136438372</v>
+        <v>0.41457366516410665</v>
       </c>
       <c r="I4">
-        <v>0.39722990186150681</v>
+        <v>0.4207266538192409</v>
       </c>
       <c r="J4">
-        <v>0.39451249191406002</v>
+        <v>0.42614898117838029</v>
       </c>
       <c r="K4">
-        <v>0.39186416789675982</v>
+        <v>0.43180509239053172</v>
       </c>
       <c r="L4">
-        <v>0.38948842142828471</v>
+        <v>0.4355189638283849</v>
       </c>
       <c r="M4">
-        <v>0.38781955538169782</v>
+        <v>0.44009369017714967</v>
       </c>
       <c r="N4">
-        <v>0.3858737074619667</v>
+        <v>0.44454227783365363</v>
       </c>
       <c r="O4">
-        <v>0.38425327706196011</v>
+        <v>0.44953479012957487</v>
       </c>
       <c r="P4">
-        <v>0.38271813361753382</v>
+        <v>0.45484935162812135</v>
       </c>
       <c r="Q4">
-        <v>0.37923033460090239</v>
+        <v>0.45759568026135672</v>
       </c>
       <c r="R4">
-        <v>0.37543434452307939</v>
+        <v>0.46019398787066307</v>
       </c>
       <c r="S4">
-        <v>0.37164089940847111</v>
+        <v>0.46280196786262406</v>
       </c>
       <c r="T4">
-        <v>0.36783202423215722</v>
+        <v>0.46551364631157921</v>
       </c>
       <c r="U4">
-        <v>0.36388313058995742</v>
+        <v>0.4681511091580029</v>
       </c>
       <c r="V4">
-        <v>0.36370813746571901</v>
+        <v>0.47274506211155432</v>
       </c>
       <c r="W4">
-        <v>0.36340782522179882</v>
+        <v>0.47730846541013094</v>
       </c>
       <c r="X4">
-        <v>0.36305064201496462</v>
+        <v>0.48166437567606624</v>
       </c>
       <c r="Y4">
-        <v>0.36318651033873539</v>
+        <v>0.48653750401657336</v>
       </c>
       <c r="Z4">
-        <v>0.36272817249675332</v>
+        <v>0.49080047003154093</v>
       </c>
       <c r="AA4">
-        <v>0.36302905704727018</v>
+        <v>0.49564509359252251</v>
       </c>
       <c r="AB4">
-        <v>0.36273010182155779</v>
+        <v>0.49992189021619349</v>
       </c>
       <c r="AC4">
-        <v>0.3625613925087785</v>
+        <v>0.50423537545672259</v>
       </c>
       <c r="AD4">
-        <v>0.36284798665814622</v>
+        <v>0.50902182473315105</v>
       </c>
       <c r="AE4">
-        <v>0.36277877183812052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.5134259359626131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -9495,7 +6386,7 @@
         <v>0.28924287298382367</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -9590,7 +6481,7 @@
         <v>5.1408384594903399E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -9685,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -9780,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -9875,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -9970,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -9990,84 +6881,83 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7.6725632388231083E-3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.5502443799722911E-2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.3496751957734079E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.1636489264320292E-2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.9940924493771908E-2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.6030542400100162E-2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.2274134795451857E-2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5.8668570371686941E-2</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>6.5281513067614746E-2</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>7.21312180105875E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>7.8365345660454319E-2</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8.4759643347583666E-2</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>9.1161068454152935E-2</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>9.7681622079422006E-2</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.1042679785680455</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.1090369246458353</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.1139006401883321</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.1186137336611016</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.123350993677838</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.1280722975347876</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.13261603654525231</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.13719178839463569</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.14167398294794409</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.14617383807500489</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.15064716412449261</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10077,4094 +6967,4094 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="763" spans="1:1">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="764" spans="1:1">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="765" spans="1:1">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="766" spans="1:1">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="767" spans="1:1">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="768" spans="1:1">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="769" spans="1:1">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="770" spans="1:1">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="771" spans="1:1">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="772" spans="1:1">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="773" spans="1:1">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="774" spans="1:1">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="775" spans="1:1">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="776" spans="1:1">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="777" spans="1:1">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="778" spans="1:1">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="779" spans="1:1">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="780" spans="1:1">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="781" spans="1:1">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="782" spans="1:1">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="783" spans="1:1">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="784" spans="1:1">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="785" spans="1:1">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="786" spans="1:1">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="787" spans="1:1">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="788" spans="1:1">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="789" spans="1:1">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="790" spans="1:1">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="791" spans="1:1">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="792" spans="1:1">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="793" spans="1:1">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="794" spans="1:1">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="795" spans="1:1">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="796" spans="1:1">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="798" spans="1:1">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="800" spans="1:1">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="801" spans="1:1">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="802" spans="1:1">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="803" spans="1:1">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="804" spans="1:1">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="805" spans="1:1">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="806" spans="1:1">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="807" spans="1:1">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="808" spans="1:1">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="809" spans="1:1">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="810" spans="1:1">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="811" spans="1:1">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="812" spans="1:1">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="813" spans="1:1">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="814" spans="1:1">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="815" spans="1:1">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="816" spans="1:1">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="817" spans="1:1">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="818" spans="1:1">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>713</v>
       </c>
@@ -14175,6 +11065,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -14403,34 +11313,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E438B8D6-AB56-4F91-A373-4E78A33184D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1D3DE4-BEFA-4A15-8EFE-74D6AF9EC952}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6414C16-9596-4F52-9548-53B7507E844B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6414C16-9596-4F52-9548-53B7507E844B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1D3DE4-BEFA-4A15-8EFE-74D6AF9EC952}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E438B8D6-AB56-4F91-A373-4E78A33184D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>